--- a/design/HTMLページ遷移図.xlsx
+++ b/design/HTMLページ遷移図.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1"/>
@@ -224,9 +224,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -237,6 +234,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1325,6 +1325,113 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8267700" y="1543050"/>
+          <a:ext cx="600075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914401" cy="346377"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="角丸四角形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2990849" y="1371600"/>
+          <a:ext cx="914401" cy="346377"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="1543050"/>
           <a:ext cx="600075" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1620,137 +1727,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R17"/>
+  <dimension ref="B2:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="5"/>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="K2" s="1" t="s">
+      <c r="I2" s="2"/>
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="5"/>
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="Q2" s="2" t="s">
+      <c r="O2" s="2"/>
+      <c r="Q2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="T2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="N3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="T3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="E9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="H9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="K9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="N9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="3"/>
+      <c r="O9" s="2"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="N10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="H3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="N3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="Q3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="5"/>
+      <c r="O10" s="4"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="H9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="K9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="N9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3"/>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="K12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="N12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="2"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="H10" s="4" t="s">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="N13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="N10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="5"/>
+      <c r="O13" s="4"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="K12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="N12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="N13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="E16" s="1" t="s">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="H16" s="2" t="s">
+      <c r="F16" s="5"/>
+      <c r="H16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="H17" s="4" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="H17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
+  <mergeCells count="23">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E2:F3"/>
     <mergeCell ref="E16:F17"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -1760,14 +1875,13 @@
     <mergeCell ref="K9:L10"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
     <mergeCell ref="E9:F10"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Q2:R3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/HTMLページ遷移図.xlsx
+++ b/design/HTMLページ遷移図.xlsx
@@ -154,12 +154,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -220,23 +250,71 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1729,143 +1807,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="13"/>
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="10"/>
+      <c r="K2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="N2" s="1" t="s">
+      <c r="L2" s="13"/>
+      <c r="N2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="Q2" s="5" t="s">
+      <c r="O2" s="19"/>
+      <c r="Q2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="5"/>
+      <c r="R2" s="13"/>
       <c r="T2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U2" s="2"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="H3" s="3" t="s">
+      <c r="C3" s="8"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="H3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="N3" s="3" t="s">
+      <c r="I3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="N3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="O3" s="21"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
       <c r="T3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U3" s="4"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="13"/>
       <c r="H9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="N9" s="1" t="s">
+      <c r="L9" s="13"/>
+      <c r="N9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="2"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="N10" s="3" t="s">
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="N10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="4"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="13"/>
       <c r="N12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
       <c r="N13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O13" s="4"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="H16" s="1" t="s">
+      <c r="F16" s="13"/>
+      <c r="H16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="H17" s="3" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="H17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
     <mergeCell ref="E16:F17"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -1881,10 +1952,18 @@
     <mergeCell ref="K12:L13"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="N13:O13"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E2:F3"/>
     <mergeCell ref="Q2:R3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/design/HTMLページ遷移図.xlsx
+++ b/design/HTMLページ遷移図.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1"/>
@@ -130,6 +130,20 @@
   </si>
   <si>
     <t>login.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総ページ数</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5ページ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -250,9 +264,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -340,7 +357,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914401" cy="346377"/>
@@ -397,13 +414,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -447,13 +464,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400012</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409580</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -498,13 +515,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -548,7 +565,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914401" cy="346377"/>
@@ -605,13 +622,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -655,7 +672,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914401" cy="346377"/>
@@ -712,7 +729,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914401" cy="346377"/>
@@ -769,7 +786,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914401" cy="346377"/>
@@ -827,13 +844,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -877,13 +894,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -927,13 +944,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -977,13 +994,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1027,13 +1044,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1077,13 +1094,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1127,13 +1144,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1177,13 +1194,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1227,13 +1244,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>323854</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1278,13 +1295,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1328,7 +1345,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914401" cy="346377"/>
@@ -1386,13 +1403,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1436,7 +1453,7 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914401" cy="346377"/>
@@ -1493,13 +1510,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1805,161 +1822,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U17"/>
+  <dimension ref="B1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="E2" s="13" t="s">
+      <c r="C4" s="7"/>
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="H2" s="9" t="s">
+      <c r="F4" s="14"/>
+      <c r="H4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="K2" s="13" t="s">
+      <c r="I4" s="11"/>
+      <c r="K4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="N2" s="18" t="s">
+      <c r="L4" s="14"/>
+      <c r="N4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="Q2" s="13" t="s">
+      <c r="O4" s="20"/>
+      <c r="Q4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="T2" s="1" t="s">
+      <c r="R4" s="14"/>
+      <c r="T4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="2"/>
+      <c r="U4" s="3"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B3" s="7" t="s">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="H3" s="11" t="s">
+      <c r="C5" s="9"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="H5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="N3" s="20" t="s">
+      <c r="I5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="N5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="T3" s="3" t="s">
+      <c r="O5" s="22"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="T5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="4"/>
+      <c r="U5" s="5"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="E9" s="13" t="s">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="E11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="H9" s="1" t="s">
+      <c r="F11" s="14"/>
+      <c r="H11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="K9" s="13" t="s">
+      <c r="I11" s="3"/>
+      <c r="K11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="N9" s="5" t="s">
+      <c r="L11" s="14"/>
+      <c r="N11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="N10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="8"/>
+      <c r="O11" s="7"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="K12" s="13" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="H12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="N12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="K14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="N12" s="1" t="s">
+      <c r="L14" s="14"/>
+      <c r="N14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O14" s="3"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="N13" s="3" t="s">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="N15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O13" s="4"/>
+      <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="E16" s="13" t="s">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="H16" s="14" t="s">
+      <c r="F18" s="14"/>
+      <c r="H18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="15"/>
+      <c r="I18" s="16"/>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="H17" s="16" t="s">
+    <row r="19" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="H19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="17"/>
+      <c r="I19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="Q4:R5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/HTMLページ遷移図.xlsx
+++ b/design/HTMLページ遷移図.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1"/>
@@ -91,13 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>complete.html</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -144,6 +137,26 @@
   </si>
   <si>
     <t>5ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録成功</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録失敗</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シッパイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -271,6 +284,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -283,18 +335,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,33 +345,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,28 +742,29 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914401" cy="346377"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="角丸四角形 43"/>
+        <xdr:cNvPr id="47" name="角丸四角形 46"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2990849" y="171450"/>
+          <a:off x="7105649" y="171450"/>
           <a:ext cx="914401" cy="346377"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -782,64 +796,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="914401" cy="346377"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="角丸四角形 46"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7105649" y="171450"/>
-          <a:ext cx="914401" cy="346377"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="15875">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -956,56 +912,6 @@
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="55" name="直線矢印コネクタ 54"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6210300" y="1371600"/>
-          <a:ext cx="600075" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線矢印コネクタ 55"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1528,6 +1434,323 @@
         <a:xfrm>
           <a:off x="4152900" y="1543050"/>
           <a:ext cx="600075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914401" cy="346377"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="角丸四角形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7105649" y="1714500"/>
+          <a:ext cx="914401" cy="346377"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914401" cy="346377"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="角丸四角形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7105649" y="2228850"/>
+          <a:ext cx="914401" cy="346377"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="2400300"/>
+          <a:ext cx="600075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210300" y="1885950"/>
+          <a:ext cx="600075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323854</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線コネクタ 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6496050" y="1876425"/>
+          <a:ext cx="4" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="2400300"/>
+          <a:ext cx="285750" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1825,143 +2048,171 @@
   <dimension ref="B1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="E4" s="14" t="s">
+      <c r="C4" s="12"/>
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="H4" s="10" t="s">
+      <c r="F4" s="2"/>
+      <c r="H4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="K4" s="14" t="s">
+      <c r="I4" s="20"/>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="N4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="N4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="20"/>
-      <c r="Q4" s="14" t="s">
+      <c r="O4" s="8"/>
+      <c r="Q4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="14"/>
-      <c r="T4" s="2" t="s">
+      <c r="R4" s="2"/>
+      <c r="T4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="3"/>
+      <c r="U4" s="16"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="H5" s="12" t="s">
+      <c r="C5" s="14"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="H5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="N5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="22"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="T5" s="4" t="s">
+      <c r="I5" s="22"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="N5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="T5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="5"/>
+      <c r="U5" s="18"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="N7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="N8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="22"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="H11" s="2" t="s">
+      <c r="F11" s="2"/>
+      <c r="H11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="K11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="14"/>
-      <c r="N11" s="6" t="s">
+      <c r="I11" s="16"/>
+      <c r="K11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="N11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="O11" s="7"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="H12" s="4" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="H12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="N12" s="8" t="s">
+      <c r="I12" s="18"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="N12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="O12" s="9"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="N14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="N14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="3"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="N15" s="4" t="s">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="N15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="5"/>
+      <c r="O15" s="18"/>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="H18" s="15" t="s">
+      <c r="F18" s="2"/>
+      <c r="H18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="H19" s="17" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="H19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="18"/>
+      <c r="I19" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="Q4:R5"/>
     <mergeCell ref="E18:F19"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
@@ -1977,14 +2228,7 @@
     <mergeCell ref="K14:L15"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="K7:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/HTMLページ遷移図.xlsx
+++ b/design/HTMLページ遷移図.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1"/>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5ページ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録成功</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
@@ -157,6 +153,25 @@
     <rPh sb="2" eb="4">
       <t>シッパイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ranking.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6ページ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -181,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +230,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,13 +298,49 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -311,40 +368,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,15 +509,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>400012</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409580</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -495,8 +528,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2457412" y="352425"/>
-          <a:ext cx="9568" cy="2428875"/>
+          <a:off x="2457450" y="695325"/>
+          <a:ext cx="9530" cy="3619500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1751,6 +1784,163 @@
         <a:xfrm>
           <a:off x="6505575" y="2400300"/>
           <a:ext cx="285750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914401" cy="346377"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="角丸四角形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2990849" y="2914650"/>
+          <a:ext cx="914401" cy="346377"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="3086100"/>
+          <a:ext cx="600075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="3095625"/>
+          <a:ext cx="257175" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2045,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U19"/>
+  <dimension ref="B1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2058,161 +2248,172 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="11"/>
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="19" t="s">
+      <c r="F4" s="14"/>
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="N4" s="7" t="s">
+      <c r="I4" s="3"/>
+      <c r="K4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="N4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="Q4" s="2" t="s">
+      <c r="O4" s="20"/>
+      <c r="Q4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="T4" s="15" t="s">
+      <c r="R4" s="14"/>
+      <c r="T4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="16"/>
+      <c r="U4" s="7"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="H5" s="21" t="s">
+      <c r="C5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="H5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="N5" s="9" t="s">
+      <c r="I5" s="5"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="N5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="T5" s="17" t="s">
+      <c r="O5" s="22"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="T5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="18"/>
+      <c r="U5" s="9"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="K7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="N7" s="19" t="s">
+      <c r="K7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="N7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="20"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="N8" s="21" t="s">
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="N8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="22"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="H11" s="15" t="s">
+      <c r="F11" s="14"/>
+      <c r="H11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="K11" s="2" t="s">
+      <c r="I11" s="7"/>
+      <c r="K11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="N11" s="11" t="s">
+      <c r="L11" s="14"/>
+      <c r="N11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O11" s="12"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="H12" s="17" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="H12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="N12" s="13" t="s">
+      <c r="I12" s="9"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="N12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="O12" s="14"/>
+      <c r="O12" s="13"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="N14" s="15" t="s">
+      <c r="L14" s="14"/>
+      <c r="N14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O14" s="16"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="N15" s="17" t="s">
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="N15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="18"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="H18" s="3" t="s">
+      <c r="F18" s="14"/>
+      <c r="H18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.15">
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="H19" s="5" t="s">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="H19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="6"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="H25" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.15">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="H26" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="Q4:R5"/>
+  <mergeCells count="29">
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="E18:F19"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
@@ -2229,6 +2430,16 @@
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="K7:L8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="Q4:R5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
